--- a/foxconn-sw-tool-service/src/main/resources/templates/project_list_template.xlsx
+++ b/foxconn-sw-tool-service/src/main/resources/templates/project_list_template.xlsx
@@ -177,10 +177,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Resolution</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>F NO.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1222,6 +1218,10 @@
   </si>
   <si>
     <t>Resolution1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolution2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1736,6 +1736,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1744,42 +1780,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2115,11 +2115,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -2192,78 +2192,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:80" ht="33" customHeight="1">
-      <c r="A1" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="79"/>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="79"/>
-      <c r="BP1" s="79"/>
-      <c r="BQ1" s="79"/>
-      <c r="BR1" s="80"/>
+      <c r="A1" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="77"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="77"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="77"/>
+      <c r="BM1" s="77"/>
+      <c r="BN1" s="77"/>
+      <c r="BO1" s="77"/>
+      <c r="BP1" s="77"/>
+      <c r="BQ1" s="77"/>
+      <c r="BR1" s="78"/>
     </row>
     <row r="2" spans="1:80" s="1" customFormat="1">
       <c r="A2" s="21" t="s">
@@ -2279,73 +2279,73 @@
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="15"/>
-      <c r="L2" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="71" t="s">
+      <c r="L2" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="73"/>
-      <c r="BA2" s="81" t="s">
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="85"/>
+      <c r="BA2" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="BB2" s="81"/>
-      <c r="BC2" s="81"/>
-      <c r="BD2" s="81"/>
-      <c r="BE2" s="81"/>
-      <c r="BF2" s="81"/>
-      <c r="BG2" s="81"/>
-      <c r="BH2" s="81"/>
-      <c r="BI2" s="81"/>
-      <c r="BJ2" s="82" t="s">
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="79"/>
+      <c r="BD2" s="79"/>
+      <c r="BE2" s="79"/>
+      <c r="BF2" s="79"/>
+      <c r="BG2" s="79"/>
+      <c r="BH2" s="79"/>
+      <c r="BI2" s="79"/>
+      <c r="BJ2" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="BK2" s="83"/>
-      <c r="BL2" s="83"/>
-      <c r="BM2" s="83"/>
-      <c r="BN2" s="83"/>
-      <c r="BO2" s="83"/>
-      <c r="BP2" s="83"/>
-      <c r="BQ2" s="83"/>
-      <c r="BR2" s="84"/>
+      <c r="BK2" s="81"/>
+      <c r="BL2" s="81"/>
+      <c r="BM2" s="81"/>
+      <c r="BN2" s="81"/>
+      <c r="BO2" s="81"/>
+      <c r="BP2" s="81"/>
+      <c r="BQ2" s="81"/>
+      <c r="BR2" s="82"/>
     </row>
     <row r="3" spans="1:80" s="1" customFormat="1">
       <c r="A3" s="5"/>
@@ -2359,77 +2359,77 @@
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="74" t="s">
+      <c r="L3" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="75"/>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="75"/>
-      <c r="AR3" s="75"/>
-      <c r="AS3" s="75"/>
-      <c r="AT3" s="75"/>
-      <c r="AU3" s="76"/>
-      <c r="AV3" s="74" t="s">
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="74"/>
+      <c r="BA3" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="AW3" s="75"/>
-      <c r="AX3" s="75"/>
-      <c r="AY3" s="75"/>
-      <c r="AZ3" s="76"/>
-      <c r="BA3" s="81" t="s">
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="BB3" s="81"/>
-      <c r="BC3" s="74" t="s">
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="74"/>
+      <c r="BJ3" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="BD3" s="75"/>
-      <c r="BE3" s="75"/>
-      <c r="BF3" s="75"/>
-      <c r="BG3" s="75"/>
-      <c r="BH3" s="75"/>
-      <c r="BI3" s="76"/>
-      <c r="BJ3" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="BK3" s="81"/>
-      <c r="BL3" s="81"/>
-      <c r="BM3" s="81"/>
-      <c r="BN3" s="81"/>
-      <c r="BO3" s="81"/>
-      <c r="BP3" s="81"/>
-      <c r="BQ3" s="81"/>
-      <c r="BR3" s="81"/>
+      <c r="BK3" s="79"/>
+      <c r="BL3" s="79"/>
+      <c r="BM3" s="79"/>
+      <c r="BN3" s="79"/>
+      <c r="BO3" s="79"/>
+      <c r="BP3" s="79"/>
+      <c r="BQ3" s="79"/>
+      <c r="BR3" s="79"/>
     </row>
     <row r="4" spans="1:80" s="1" customFormat="1">
       <c r="A4" s="20"/>
@@ -2443,80 +2443,80 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="71" t="s">
-        <v>169</v>
-      </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
+      <c r="L4" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
       <c r="U4" s="48"/>
       <c r="V4" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="W4" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="W4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="74" t="s">
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="76"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="74"/>
       <c r="AC4" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD4" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="75"/>
-      <c r="AH4" s="75"/>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="75"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="81" t="s">
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="81" t="s">
+      <c r="AO4" s="79"/>
+      <c r="AP4" s="79"/>
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
+      <c r="AS4" s="79"/>
+      <c r="AT4" s="79"/>
       <c r="AU4" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="AV4" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="AW4" s="75"/>
-      <c r="AX4" s="75"/>
-      <c r="AY4" s="75"/>
-      <c r="AZ4" s="76"/>
-      <c r="BA4" s="81" t="s">
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="74" t="s">
+      <c r="BB4" s="79"/>
+      <c r="BC4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="BD4" s="75"/>
-      <c r="BE4" s="75"/>
-      <c r="BF4" s="75"/>
-      <c r="BG4" s="75"/>
-      <c r="BH4" s="75"/>
-      <c r="BI4" s="76"/>
+      <c r="BD4" s="73"/>
+      <c r="BE4" s="73"/>
+      <c r="BF4" s="73"/>
+      <c r="BG4" s="73"/>
+      <c r="BH4" s="73"/>
+      <c r="BI4" s="74"/>
       <c r="BJ4" s="10"/>
       <c r="BK4" s="11"/>
       <c r="BL4" s="11"/>
@@ -2532,25 +2532,25 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>0</v>
@@ -2559,157 +2559,157 @@
         <v>26</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="L5" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="L5" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="M5" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="M5" s="85" t="s">
+      <c r="N5" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="O5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="P5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="W5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA5" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG5" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH5" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="O5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="V5" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="W5" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y5" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA5" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB5" s="19" t="s">
+      <c r="AI5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AC5" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD5" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG5" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH5" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AS5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AL5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS5" s="2" t="s">
+      <c r="AW5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX5" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="AT5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW5" s="19" t="s">
+      <c r="AY5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AX5" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY5" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="AZ5" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="BB5" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BC5" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD5" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="BD5" s="19" t="s">
-        <v>184</v>
-      </c>
       <c r="BE5" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BF5" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BG5" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BH5" s="19" t="s">
         <v>2</v>
       </c>
       <c r="BI5" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BJ5" s="19" t="s">
         <v>3</v>
@@ -2718,25 +2718,25 @@
         <v>4</v>
       </c>
       <c r="BL5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="BM5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="BM5" s="19" t="s">
+      <c r="BN5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="BN5" s="19" t="s">
+      <c r="BO5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="BO5" s="19" t="s">
+      <c r="BP5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="BP5" s="19" t="s">
+      <c r="BQ5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="BQ5" s="19" t="s">
+      <c r="BR5" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="BR5" s="19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:80" s="43" customFormat="1" ht="24" customHeight="1">
@@ -2747,94 +2747,94 @@
         <v>2017</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="I6" s="63" t="s">
+      <c r="J6" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="K6" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="30" t="s">
-        <v>63</v>
-      </c>
       <c r="L6" s="63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M6" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N6" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O6" s="41">
         <v>2.0499999999999998</v>
       </c>
       <c r="P6" s="63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R6" s="63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S6" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" s="63" t="s">
         <v>67</v>
-      </c>
-      <c r="T6" s="63" t="s">
-        <v>68</v>
       </c>
       <c r="U6" s="30">
         <v>103</v>
       </c>
       <c r="V6" s="62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W6" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="X6" s="60" t="s">
+      <c r="Y6" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z6" s="60" t="s">
         <v>79</v>
-      </c>
-      <c r="Y6" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z6" s="60" t="s">
-        <v>80</v>
       </c>
       <c r="AA6" s="60">
         <v>75</v>
       </c>
       <c r="AB6" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC6" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD6" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AE6" s="66" t="s">
+      <c r="AF6" s="65" t="s">
         <v>70</v>
-      </c>
-      <c r="AF6" s="65" t="s">
-        <v>71</v>
       </c>
       <c r="AG6" s="31">
         <v>114</v>
@@ -2849,19 +2849,19 @@
         <v>150</v>
       </c>
       <c r="AK6" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL6" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM6" s="38">
         <v>31</v>
       </c>
       <c r="AN6" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO6" s="30" t="s">
         <v>76</v>
-      </c>
-      <c r="AO6" s="30" t="s">
-        <v>77</v>
       </c>
       <c r="AP6" s="68">
         <v>0.35</v>
@@ -2870,85 +2870,85 @@
         <v>18</v>
       </c>
       <c r="AR6" s="64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AS6" s="64">
         <v>2</v>
       </c>
       <c r="AT6" s="64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AU6" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AV6" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW6" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AW6" s="30" t="s">
-        <v>75</v>
-      </c>
       <c r="AX6" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AY6" s="33">
         <v>83.5</v>
       </c>
       <c r="AZ6" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BA6" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB6" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC6" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD6" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE6" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF6" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="BG6" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH6" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="BI6" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="BJ6" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="BB6" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC6" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD6" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="BE6" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="BF6" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="BG6" s="64" t="s">
+      <c r="BK6" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="BH6" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="BI6" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="BJ6" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="BK6" s="65" t="s">
-        <v>83</v>
-      </c>
       <c r="BL6" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BM6" s="65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BN6" s="65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BO6" s="65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BP6" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BQ6" s="65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BR6" s="65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:80" s="43" customFormat="1" ht="24" customHeight="1">
@@ -2959,94 +2959,94 @@
         <v>2018</v>
       </c>
       <c r="C7" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>153</v>
-      </c>
       <c r="E7" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M7" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N7" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O7" s="58">
         <v>2.0499999999999998</v>
       </c>
       <c r="P7" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="34" t="s">
-        <v>65</v>
-      </c>
       <c r="R7" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S7" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T7" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U7" s="30">
         <v>103</v>
       </c>
       <c r="V7" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="X7" s="25" t="s">
+      <c r="Y7" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z7" s="26" t="s">
         <v>79</v>
-      </c>
-      <c r="Y7" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z7" s="26" t="s">
-        <v>80</v>
       </c>
       <c r="AA7" s="25">
         <v>75</v>
       </c>
       <c r="AB7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC7" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD7" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE7" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="AE7" s="35" t="s">
+      <c r="AF7" s="35" t="s">
         <v>70</v>
-      </c>
-      <c r="AF7" s="35" t="s">
-        <v>71</v>
       </c>
       <c r="AG7" s="31">
         <v>114</v>
@@ -3061,19 +3061,19 @@
         <v>150</v>
       </c>
       <c r="AK7" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL7" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM7" s="38">
         <v>31</v>
       </c>
       <c r="AN7" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AO7" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AP7" s="69">
         <v>0.35</v>
@@ -3082,58 +3082,58 @@
         <v>18</v>
       </c>
       <c r="AR7" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AS7" s="26">
         <v>2</v>
       </c>
       <c r="AT7" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AU7" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AV7" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW7" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="AW7" s="34" t="s">
-        <v>75</v>
-      </c>
       <c r="AX7" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AY7" s="39">
         <v>83.5</v>
       </c>
       <c r="AZ7" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BA7" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB7" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BC7" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BD7" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE7" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF7" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="BE7" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="BF7" s="26" t="s">
-        <v>213</v>
-      </c>
       <c r="BG7" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BH7" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BI7" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BJ7" s="26" t="s">
         <v>5</v>
@@ -3142,7 +3142,7 @@
         <v>5</v>
       </c>
       <c r="BL7" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BM7" s="26" t="s">
         <v>5</v>
@@ -3154,13 +3154,13 @@
         <v>5</v>
       </c>
       <c r="BP7" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BQ7" s="26" t="s">
         <v>5</v>
       </c>
       <c r="BR7" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:80" s="43" customFormat="1" ht="24" customHeight="1">
@@ -3174,91 +3174,91 @@
         <v>6</v>
       </c>
       <c r="D8" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>87</v>
-      </c>
       <c r="K8" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M8" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N8" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O8" s="58">
         <v>2.0499999999999998</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S8" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" s="35" t="s">
         <v>67</v>
-      </c>
-      <c r="T8" s="35" t="s">
-        <v>68</v>
       </c>
       <c r="U8" s="34">
         <v>103</v>
       </c>
       <c r="V8" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W8" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="X8" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="X8" s="25" t="s">
+      <c r="Y8" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z8" s="26" t="s">
         <v>79</v>
-      </c>
-      <c r="Y8" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z8" s="26" t="s">
-        <v>80</v>
       </c>
       <c r="AA8" s="25">
         <v>75</v>
       </c>
       <c r="AB8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC8" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD8" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE8" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="AE8" s="35" t="s">
+      <c r="AF8" s="35" t="s">
         <v>70</v>
-      </c>
-      <c r="AF8" s="35" t="s">
-        <v>71</v>
       </c>
       <c r="AG8" s="31">
         <v>114</v>
@@ -3273,19 +3273,19 @@
         <v>150</v>
       </c>
       <c r="AK8" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL8" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM8" s="38">
         <v>31</v>
       </c>
       <c r="AN8" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO8" s="34" t="s">
         <v>76</v>
-      </c>
-      <c r="AO8" s="34" t="s">
-        <v>77</v>
       </c>
       <c r="AP8" s="69">
         <v>0.35</v>
@@ -3294,58 +3294,58 @@
         <v>18</v>
       </c>
       <c r="AR8" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AS8" s="26">
         <v>2</v>
       </c>
       <c r="AT8" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU8" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AV8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW8" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="AW8" s="34" t="s">
-        <v>75</v>
-      </c>
       <c r="AX8" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AY8" s="39">
         <v>83.5</v>
       </c>
       <c r="AZ8" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BA8" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB8" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BC8" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BD8" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE8" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF8" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="BE8" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="BF8" s="26" t="s">
-        <v>213</v>
-      </c>
       <c r="BG8" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BH8" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BI8" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BJ8" s="26" t="s">
         <v>5</v>
@@ -3354,7 +3354,7 @@
         <v>5</v>
       </c>
       <c r="BL8" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BM8" s="26" t="s">
         <v>5</v>
@@ -3366,13 +3366,13 @@
         <v>5</v>
       </c>
       <c r="BP8" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BQ8" s="26" t="s">
         <v>5</v>
       </c>
       <c r="BR8" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:80" s="43" customFormat="1" ht="24" customHeight="1">
@@ -3386,73 +3386,73 @@
         <v>7</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M9" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N9" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O9" s="58">
         <v>2.0499999999999998</v>
       </c>
       <c r="P9" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Q9" s="34" t="s">
-        <v>65</v>
-      </c>
       <c r="R9" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S9" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T9" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U9" s="34">
         <v>103</v>
       </c>
       <c r="V9" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W9" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X9" s="25" t="s">
         <v>10</v>
       </c>
       <c r="Y9" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z9" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA9" s="25">
         <v>75</v>
@@ -3461,16 +3461,16 @@
         <v>11</v>
       </c>
       <c r="AC9" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD9" s="34" t="s">
         <v>9</v>
       </c>
       <c r="AE9" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF9" s="35" t="s">
         <v>70</v>
-      </c>
-      <c r="AF9" s="35" t="s">
-        <v>71</v>
       </c>
       <c r="AG9" s="31">
         <v>114</v>
@@ -3485,19 +3485,19 @@
         <v>150</v>
       </c>
       <c r="AK9" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL9" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM9" s="38">
         <v>31</v>
       </c>
       <c r="AN9" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO9" s="34" t="s">
         <v>76</v>
-      </c>
-      <c r="AO9" s="34" t="s">
-        <v>77</v>
       </c>
       <c r="AP9" s="69">
         <v>0.35</v>
@@ -3506,58 +3506,58 @@
         <v>18</v>
       </c>
       <c r="AR9" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AS9" s="26">
         <v>2</v>
       </c>
       <c r="AT9" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU9" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AV9" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AW9" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AX9" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AY9" s="39">
         <v>83.5</v>
       </c>
       <c r="AZ9" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BA9" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB9" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BC9" s="35" t="s">
         <v>8</v>
       </c>
       <c r="BD9" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE9" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF9" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="BE9" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="BF9" s="26" t="s">
-        <v>213</v>
-      </c>
       <c r="BG9" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BH9" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BI9" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BJ9" s="26" t="s">
         <v>5</v>
@@ -3566,7 +3566,7 @@
         <v>5</v>
       </c>
       <c r="BL9" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BM9" s="26" t="s">
         <v>5</v>
@@ -3578,13 +3578,13 @@
         <v>5</v>
       </c>
       <c r="BP9" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BQ9" s="26" t="s">
         <v>5</v>
       </c>
       <c r="BR9" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:80" s="43" customFormat="1" ht="24" customHeight="1">
@@ -3595,94 +3595,94 @@
         <v>2018</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="59" t="s">
-        <v>156</v>
-      </c>
       <c r="F10" s="61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>92</v>
-      </c>
       <c r="M10" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O10" s="58">
         <v>2.2000000000000002</v>
       </c>
       <c r="P10" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="34" t="s">
-        <v>65</v>
-      </c>
       <c r="R10" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T10" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U10" s="34">
         <v>84</v>
       </c>
       <c r="V10" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W10" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="X10" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y10" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="X10" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y10" s="25" t="s">
-        <v>98</v>
-      </c>
       <c r="Z10" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA10" s="25">
         <v>120</v>
       </c>
       <c r="AB10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC10" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD10" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE10" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF10" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG10" s="37">
         <v>90</v>
@@ -3697,19 +3697,19 @@
         <v>150</v>
       </c>
       <c r="AK10" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL10" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM10" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN10" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="AM10" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN10" s="34" t="s">
+      <c r="AO10" s="34" t="s">
         <v>209</v>
-      </c>
-      <c r="AO10" s="34" t="s">
-        <v>210</v>
       </c>
       <c r="AP10" s="69">
         <v>0.35</v>
@@ -3718,85 +3718,85 @@
         <v>22</v>
       </c>
       <c r="AR10" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AS10" s="26">
         <v>2</v>
       </c>
       <c r="AT10" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU10" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AV10" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AW10" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AX10" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AY10" s="39">
         <v>70</v>
       </c>
       <c r="AZ10" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BA10" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB10" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC10" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD10" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE10" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF10" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG10" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="BH10" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="BI10" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="BJ10" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="BB10" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC10" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD10" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE10" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="BF10" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="BG10" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="BH10" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="BI10" s="26" t="s">
+      <c r="BK10" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="BL10" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="BM10" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="BN10" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO10" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="BP10" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="BQ10" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="BR10" s="26" t="s">
         <v>175</v>
-      </c>
-      <c r="BJ10" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK10" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL10" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM10" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="BN10" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="BO10" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="BP10" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="BQ10" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="BR10" s="26" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:80" s="43" customFormat="1" ht="24" customHeight="1">
@@ -3807,94 +3807,94 @@
         <v>2018</v>
       </c>
       <c r="C11" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="59" t="s">
-        <v>158</v>
-      </c>
       <c r="E11" s="59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H11" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O11" s="58">
         <v>2.2000000000000002</v>
       </c>
       <c r="P11" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" s="34" t="s">
-        <v>65</v>
-      </c>
       <c r="R11" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S11" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T11" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U11" s="34">
         <v>84</v>
       </c>
       <c r="V11" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W11" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="X11" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y11" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="X11" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y11" s="25" t="s">
-        <v>98</v>
-      </c>
       <c r="Z11" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA11" s="25">
         <v>120</v>
       </c>
       <c r="AB11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC11" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD11" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE11" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF11" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG11" s="37">
         <v>90</v>
@@ -3909,19 +3909,19 @@
         <v>150</v>
       </c>
       <c r="AK11" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL11" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM11" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN11" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="AM11" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN11" s="34" t="s">
+      <c r="AO11" s="34" t="s">
         <v>209</v>
-      </c>
-      <c r="AO11" s="34" t="s">
-        <v>210</v>
       </c>
       <c r="AP11" s="69">
         <v>0.35</v>
@@ -3930,85 +3930,85 @@
         <v>22</v>
       </c>
       <c r="AR11" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AS11" s="26">
         <v>2</v>
       </c>
       <c r="AT11" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU11" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AV11" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AW11" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AX11" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AY11" s="39">
         <v>70</v>
       </c>
       <c r="AZ11" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BA11" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BB11" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BC11" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD11" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="BD11" s="35" t="s">
-        <v>94</v>
-      </c>
       <c r="BE11" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BF11" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BG11" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BH11" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BI11" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="BJ11" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK11" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="BL11" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM11" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="BN11" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO11" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="BP11" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ11" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="BR11" s="26" t="s">
         <v>175</v>
-      </c>
-      <c r="BJ11" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="BK11" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL11" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="BM11" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="BN11" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="BO11" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="BP11" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="BQ11" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="BR11" s="26" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:80" s="43" customFormat="1" ht="24" customHeight="1">
@@ -4019,94 +4019,94 @@
         <v>2019</v>
       </c>
       <c r="C12" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="70" t="s">
-        <v>160</v>
-      </c>
       <c r="E12" s="70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G12" s="70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O12" s="58">
         <v>2.0499999999999998</v>
       </c>
       <c r="P12" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Q12" s="34" t="s">
-        <v>65</v>
-      </c>
       <c r="R12" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S12" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T12" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U12" s="50">
         <v>103</v>
       </c>
       <c r="V12" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W12" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="X12" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="X12" s="25" t="s">
+      <c r="Y12" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z12" s="25" t="s">
         <v>79</v>
-      </c>
-      <c r="Y12" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z12" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="AA12" s="25">
         <v>75</v>
       </c>
       <c r="AB12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC12" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD12" s="34" t="s">
         <v>9</v>
       </c>
       <c r="AE12" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF12" s="35" t="s">
         <v>70</v>
-      </c>
-      <c r="AF12" s="35" t="s">
-        <v>71</v>
       </c>
       <c r="AG12" s="37">
         <v>114</v>
@@ -4121,19 +4121,19 @@
         <v>150</v>
       </c>
       <c r="AK12" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL12" s="38" t="s">
         <v>72</v>
-      </c>
-      <c r="AL12" s="38" t="s">
-        <v>73</v>
       </c>
       <c r="AM12" s="38">
         <v>31</v>
       </c>
       <c r="AN12" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO12" s="34" t="s">
         <v>76</v>
-      </c>
-      <c r="AO12" s="34" t="s">
-        <v>77</v>
       </c>
       <c r="AP12" s="69">
         <v>0.35</v>
@@ -4142,85 +4142,85 @@
         <v>18</v>
       </c>
       <c r="AR12" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AS12" s="26">
         <v>2</v>
       </c>
       <c r="AT12" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AU12" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AV12" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AW12" s="34" t="s">
         <v>12</v>
       </c>
       <c r="AX12" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AY12" s="39">
         <v>83.5</v>
       </c>
       <c r="AZ12" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BA12" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB12" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BC12" s="35" t="s">
         <v>8</v>
       </c>
       <c r="BD12" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE12" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF12" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="BE12" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="BF12" s="26" t="s">
-        <v>213</v>
-      </c>
       <c r="BG12" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BH12" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BI12" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BJ12" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK12" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="BK12" s="25" t="s">
-        <v>109</v>
-      </c>
       <c r="BL12" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BM12" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN12" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO12" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="BN12" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="BO12" s="25" t="s">
+      <c r="BP12" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ12" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="BP12" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="BQ12" s="25" t="s">
-        <v>231</v>
-      </c>
       <c r="BR12" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:80" s="46" customFormat="1" ht="15">
@@ -4379,7 +4379,7 @@
       <c r="S16" s="52"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V16" s="46"/>
       <c r="W16" s="46"/>
@@ -6340,7 +6340,6 @@
   </sheetData>
   <autoFilter ref="A5:BR12"/>
   <mergeCells count="20">
-    <mergeCell ref="AD4:AM4"/>
     <mergeCell ref="AV4:AZ4"/>
     <mergeCell ref="L4:T4"/>
     <mergeCell ref="AD3:AU3"/>
@@ -6360,6 +6359,7 @@
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="L2:V2"/>
     <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="AD4:AM4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="BJ3 L4 BA3 BS2:XFD3 F2:L2 F3:K3 W2 V4:V12 BA2:BB2 BQ6:BQ12 BS6:XFD12 BF2:BJ2 BJ4:XFD4 BC3:BC4 F1:XFD1 A1:A1048576 W4:AD4 AN4:AV4 BA4:BB4 F13:XFD1048576 W5:XFD5 BE3 W6:AU12 BA6:BO12 F5:U12">

--- a/foxconn-sw-tool-service/src/main/resources/templates/project_list_template.xlsx
+++ b/foxconn-sw-tool-service/src/main/resources/templates/project_list_template.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="1207">
   <si>
     <t>Customer</t>
   </si>
@@ -5218,6 +5218,46 @@
   </si>
   <si>
     <t>Resolution1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EE CRA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">° </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5984,50 +6024,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6110,6 +6108,15 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6134,11 +6141,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12105,10 +12145,10 @@
   <dimension ref="A1:CB106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="AL6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -12181,340 +12221,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="33" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="147" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="160"/>
-      <c r="AH1" s="160"/>
-      <c r="AI1" s="160"/>
-      <c r="AJ1" s="160"/>
-      <c r="AK1" s="160"/>
-      <c r="AL1" s="160"/>
-      <c r="AM1" s="160"/>
-      <c r="AN1" s="160"/>
-      <c r="AO1" s="160"/>
-      <c r="AP1" s="160"/>
-      <c r="AQ1" s="160"/>
-      <c r="AR1" s="160"/>
-      <c r="AS1" s="160"/>
-      <c r="AT1" s="160"/>
-      <c r="AU1" s="160"/>
-      <c r="AV1" s="160"/>
-      <c r="AW1" s="160"/>
-      <c r="AX1" s="160"/>
-      <c r="AY1" s="160"/>
-      <c r="AZ1" s="160"/>
-      <c r="BA1" s="160"/>
-      <c r="BB1" s="160"/>
-      <c r="BC1" s="160"/>
-      <c r="BD1" s="160"/>
-      <c r="BE1" s="160"/>
-      <c r="BF1" s="160"/>
-      <c r="BG1" s="160"/>
-      <c r="BH1" s="160"/>
-      <c r="BI1" s="160"/>
-      <c r="BJ1" s="160"/>
-      <c r="BK1" s="160"/>
-      <c r="BL1" s="160"/>
-      <c r="BM1" s="160"/>
-      <c r="BN1" s="160"/>
-      <c r="BO1" s="160"/>
-      <c r="BP1" s="160"/>
-      <c r="BQ1" s="160"/>
-      <c r="BR1" s="161"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
+      <c r="AL1" s="149"/>
+      <c r="AM1" s="149"/>
+      <c r="AN1" s="149"/>
+      <c r="AO1" s="149"/>
+      <c r="AP1" s="149"/>
+      <c r="AQ1" s="149"/>
+      <c r="AR1" s="149"/>
+      <c r="AS1" s="149"/>
+      <c r="AT1" s="149"/>
+      <c r="AU1" s="149"/>
+      <c r="AV1" s="149"/>
+      <c r="AW1" s="149"/>
+      <c r="AX1" s="149"/>
+      <c r="AY1" s="149"/>
+      <c r="AZ1" s="149"/>
+      <c r="BA1" s="149"/>
+      <c r="BB1" s="149"/>
+      <c r="BC1" s="149"/>
+      <c r="BD1" s="149"/>
+      <c r="BE1" s="149"/>
+      <c r="BF1" s="149"/>
+      <c r="BG1" s="149"/>
+      <c r="BH1" s="149"/>
+      <c r="BI1" s="149"/>
+      <c r="BJ1" s="149"/>
+      <c r="BK1" s="149"/>
+      <c r="BL1" s="149"/>
+      <c r="BM1" s="149"/>
+      <c r="BN1" s="149"/>
+      <c r="BO1" s="149"/>
+      <c r="BP1" s="149"/>
+      <c r="BQ1" s="149"/>
+      <c r="BR1" s="150"/>
     </row>
     <row r="2" spans="1:70" s="1" customFormat="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="128" t="s">
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="144" t="s">
         <v>404</v>
       </c>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="128" t="s">
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="129"/>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="129"/>
-      <c r="AK2" s="129"/>
-      <c r="AL2" s="129"/>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129"/>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="129"/>
-      <c r="AV2" s="129"/>
-      <c r="AW2" s="129"/>
-      <c r="AX2" s="129"/>
-      <c r="AY2" s="129"/>
-      <c r="AZ2" s="130"/>
-      <c r="BA2" s="162" t="s">
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="145"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="145"/>
+      <c r="AJ2" s="145"/>
+      <c r="AK2" s="145"/>
+      <c r="AL2" s="145"/>
+      <c r="AM2" s="145"/>
+      <c r="AN2" s="145"/>
+      <c r="AO2" s="145"/>
+      <c r="AP2" s="145"/>
+      <c r="AQ2" s="145"/>
+      <c r="AR2" s="145"/>
+      <c r="AS2" s="145"/>
+      <c r="AT2" s="145"/>
+      <c r="AU2" s="145"/>
+      <c r="AV2" s="145"/>
+      <c r="AW2" s="145"/>
+      <c r="AX2" s="145"/>
+      <c r="AY2" s="145"/>
+      <c r="AZ2" s="146"/>
+      <c r="BA2" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="BB2" s="162"/>
-      <c r="BC2" s="162"/>
-      <c r="BD2" s="162"/>
-      <c r="BE2" s="162"/>
-      <c r="BF2" s="162"/>
-      <c r="BG2" s="162"/>
-      <c r="BH2" s="162"/>
-      <c r="BI2" s="162"/>
-      <c r="BJ2" s="163" t="s">
+      <c r="BB2" s="151"/>
+      <c r="BC2" s="151"/>
+      <c r="BD2" s="151"/>
+      <c r="BE2" s="151"/>
+      <c r="BF2" s="151"/>
+      <c r="BG2" s="151"/>
+      <c r="BH2" s="151"/>
+      <c r="BI2" s="151"/>
+      <c r="BJ2" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="BK2" s="164"/>
-      <c r="BL2" s="164"/>
-      <c r="BM2" s="164"/>
-      <c r="BN2" s="164"/>
-      <c r="BO2" s="164"/>
-      <c r="BP2" s="164"/>
-      <c r="BQ2" s="164"/>
-      <c r="BR2" s="165"/>
+      <c r="BK2" s="153"/>
+      <c r="BL2" s="153"/>
+      <c r="BM2" s="153"/>
+      <c r="BN2" s="153"/>
+      <c r="BO2" s="153"/>
+      <c r="BP2" s="153"/>
+      <c r="BQ2" s="153"/>
+      <c r="BR2" s="154"/>
     </row>
     <row r="3" spans="1:70" s="1" customFormat="1">
-      <c r="A3" s="119"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="151" t="s">
+      <c r="A3" s="158"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="137" t="s">
         <v>437</v>
       </c>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
-      <c r="S3" s="152"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="152"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="153"/>
-      <c r="AD3" s="151" t="s">
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="139"/>
+      <c r="AD3" s="137" t="s">
         <v>618</v>
       </c>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="152"/>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="152"/>
-      <c r="AJ3" s="152"/>
-      <c r="AK3" s="152"/>
-      <c r="AL3" s="152"/>
-      <c r="AM3" s="152"/>
-      <c r="AN3" s="152"/>
-      <c r="AO3" s="152"/>
-      <c r="AP3" s="152"/>
-      <c r="AQ3" s="152"/>
-      <c r="AR3" s="152"/>
-      <c r="AS3" s="152"/>
-      <c r="AT3" s="152"/>
-      <c r="AU3" s="153"/>
-      <c r="AV3" s="151" t="s">
+      <c r="AE3" s="138"/>
+      <c r="AF3" s="138"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="138"/>
+      <c r="AK3" s="138"/>
+      <c r="AL3" s="138"/>
+      <c r="AM3" s="138"/>
+      <c r="AN3" s="138"/>
+      <c r="AO3" s="138"/>
+      <c r="AP3" s="138"/>
+      <c r="AQ3" s="138"/>
+      <c r="AR3" s="138"/>
+      <c r="AS3" s="138"/>
+      <c r="AT3" s="138"/>
+      <c r="AU3" s="139"/>
+      <c r="AV3" s="137" t="s">
         <v>619</v>
       </c>
-      <c r="AW3" s="152"/>
-      <c r="AX3" s="152"/>
-      <c r="AY3" s="152"/>
-      <c r="AZ3" s="153"/>
-      <c r="BA3" s="162" t="s">
+      <c r="AW3" s="138"/>
+      <c r="AX3" s="138"/>
+      <c r="AY3" s="138"/>
+      <c r="AZ3" s="139"/>
+      <c r="BA3" s="151" t="s">
         <v>620</v>
       </c>
-      <c r="BB3" s="162"/>
-      <c r="BC3" s="151" t="s">
+      <c r="BB3" s="151"/>
+      <c r="BC3" s="137" t="s">
         <v>621</v>
       </c>
-      <c r="BD3" s="152"/>
-      <c r="BE3" s="152"/>
-      <c r="BF3" s="152"/>
-      <c r="BG3" s="152"/>
-      <c r="BH3" s="152"/>
-      <c r="BI3" s="153"/>
-      <c r="BJ3" s="162" t="s">
+      <c r="BD3" s="138"/>
+      <c r="BE3" s="138"/>
+      <c r="BF3" s="138"/>
+      <c r="BG3" s="138"/>
+      <c r="BH3" s="138"/>
+      <c r="BI3" s="139"/>
+      <c r="BJ3" s="151" t="s">
         <v>622</v>
       </c>
-      <c r="BK3" s="162"/>
-      <c r="BL3" s="162"/>
-      <c r="BM3" s="162"/>
-      <c r="BN3" s="162"/>
-      <c r="BO3" s="162"/>
-      <c r="BP3" s="162"/>
-      <c r="BQ3" s="162"/>
-      <c r="BR3" s="162"/>
+      <c r="BK3" s="151"/>
+      <c r="BL3" s="151"/>
+      <c r="BM3" s="151"/>
+      <c r="BN3" s="151"/>
+      <c r="BO3" s="151"/>
+      <c r="BP3" s="151"/>
+      <c r="BQ3" s="151"/>
+      <c r="BR3" s="151"/>
     </row>
     <row r="4" spans="1:70" s="1" customFormat="1">
-      <c r="A4" s="122"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="128" t="s">
+      <c r="A4" s="161"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="144" t="s">
         <v>644</v>
       </c>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="130"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="145"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="146"/>
       <c r="V4" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="W4" s="162" t="s">
+      <c r="W4" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="162"/>
-      <c r="Y4" s="162"/>
-      <c r="Z4" s="151" t="s">
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="AA4" s="152"/>
-      <c r="AB4" s="153"/>
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="139"/>
       <c r="AC4" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="AD4" s="151" t="s">
+      <c r="AD4" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="AE4" s="152"/>
-      <c r="AF4" s="152"/>
-      <c r="AG4" s="152"/>
-      <c r="AH4" s="152"/>
-      <c r="AI4" s="152"/>
-      <c r="AJ4" s="152"/>
-      <c r="AK4" s="152"/>
-      <c r="AL4" s="152"/>
-      <c r="AM4" s="153"/>
-      <c r="AN4" s="162" t="s">
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="138"/>
+      <c r="AI4" s="138"/>
+      <c r="AJ4" s="138"/>
+      <c r="AK4" s="138"/>
+      <c r="AL4" s="138"/>
+      <c r="AM4" s="139"/>
+      <c r="AN4" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="AO4" s="162"/>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
-      <c r="AR4" s="162" t="s">
+      <c r="AO4" s="151"/>
+      <c r="AP4" s="151"/>
+      <c r="AQ4" s="151"/>
+      <c r="AR4" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="AS4" s="162"/>
-      <c r="AT4" s="162"/>
+      <c r="AS4" s="151"/>
+      <c r="AT4" s="151"/>
       <c r="AU4" s="53" t="s">
         <v>516</v>
       </c>
-      <c r="AV4" s="151" t="s">
+      <c r="AV4" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="AW4" s="152"/>
-      <c r="AX4" s="152"/>
-      <c r="AY4" s="152"/>
-      <c r="AZ4" s="153"/>
-      <c r="BA4" s="162" t="s">
+      <c r="AW4" s="138"/>
+      <c r="AX4" s="138"/>
+      <c r="AY4" s="138"/>
+      <c r="AZ4" s="139"/>
+      <c r="BA4" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="BB4" s="162"/>
-      <c r="BC4" s="151" t="s">
+      <c r="BB4" s="151"/>
+      <c r="BC4" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="BD4" s="152"/>
-      <c r="BE4" s="152"/>
-      <c r="BF4" s="152"/>
-      <c r="BG4" s="152"/>
-      <c r="BH4" s="152"/>
-      <c r="BI4" s="153"/>
-      <c r="BJ4" s="125"/>
-      <c r="BK4" s="126"/>
-      <c r="BL4" s="126"/>
-      <c r="BM4" s="126"/>
-      <c r="BN4" s="126"/>
-      <c r="BO4" s="126"/>
-      <c r="BP4" s="126"/>
-      <c r="BQ4" s="126"/>
-      <c r="BR4" s="127"/>
+      <c r="BD4" s="138"/>
+      <c r="BE4" s="138"/>
+      <c r="BF4" s="138"/>
+      <c r="BG4" s="138"/>
+      <c r="BH4" s="138"/>
+      <c r="BI4" s="139"/>
+      <c r="BJ4" s="164"/>
+      <c r="BK4" s="165"/>
+      <c r="BL4" s="165"/>
+      <c r="BM4" s="165"/>
+      <c r="BN4" s="165"/>
+      <c r="BO4" s="165"/>
+      <c r="BP4" s="165"/>
+      <c r="BQ4" s="165"/>
+      <c r="BR4" s="166"/>
     </row>
     <row r="5" spans="1:70" s="54" customFormat="1" ht="36">
       <c r="A5" s="5" t="s">
@@ -12550,10 +12590,10 @@
       <c r="K5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="167" t="s">
+      <c r="L5" s="116" t="s">
         <v>1204</v>
       </c>
-      <c r="M5" s="167" t="s">
+      <c r="M5" s="116" t="s">
         <v>1203</v>
       </c>
       <c r="N5" s="57" t="s">
@@ -12602,7 +12642,7 @@
         <v>57</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>350</v>
+        <v>1205</v>
       </c>
       <c r="AD5" s="15" t="s">
         <v>41</v>
@@ -12632,7 +12672,7 @@
         <v>312</v>
       </c>
       <c r="AM5" s="97" t="s">
-        <v>1179</v>
+        <v>1206</v>
       </c>
       <c r="AN5" s="2" t="s">
         <v>50</v>
@@ -18083,10 +18123,10 @@
       <c r="R31" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="S31" s="156" t="s">
+      <c r="S31" s="142" t="s">
         <v>679</v>
       </c>
-      <c r="T31" s="157"/>
+      <c r="T31" s="143"/>
       <c r="U31" s="63">
         <v>24</v>
       </c>
@@ -18293,10 +18333,10 @@
       <c r="R32" s="8" t="s">
         <v>1104</v>
       </c>
-      <c r="S32" s="154" t="s">
+      <c r="S32" s="140" t="s">
         <v>982</v>
       </c>
-      <c r="T32" s="155"/>
+      <c r="T32" s="141"/>
       <c r="U32" s="64">
         <v>28</v>
       </c>
@@ -23167,10 +23207,10 @@
       <c r="R55" s="25" t="s">
         <v>575</v>
       </c>
-      <c r="S55" s="154" t="s">
+      <c r="S55" s="140" t="s">
         <v>576</v>
       </c>
-      <c r="T55" s="155"/>
+      <c r="T55" s="141"/>
       <c r="U55" s="64">
         <v>76</v>
       </c>
@@ -23377,10 +23417,10 @@
       <c r="R56" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="S56" s="154" t="s">
+      <c r="S56" s="140" t="s">
         <v>752</v>
       </c>
-      <c r="T56" s="155"/>
+      <c r="T56" s="141"/>
       <c r="U56" s="28" t="s">
         <v>531</v>
       </c>
@@ -23799,10 +23839,10 @@
       <c r="R58" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="S58" s="154" t="s">
+      <c r="S58" s="140" t="s">
         <v>648</v>
       </c>
-      <c r="T58" s="155"/>
+      <c r="T58" s="141"/>
       <c r="U58" s="28">
         <v>24</v>
       </c>
@@ -26161,94 +26201,94 @@
       <c r="BR69" s="8"/>
     </row>
     <row r="70" spans="1:70" s="33" customFormat="1" ht="24" customHeight="1">
-      <c r="A70" s="133">
+      <c r="A70" s="119">
         <v>65</v>
       </c>
-      <c r="B70" s="133">
+      <c r="B70" s="119">
         <v>2023</v>
       </c>
-      <c r="C70" s="147" t="s">
-        <v>531</v>
-      </c>
-      <c r="D70" s="133" t="s">
+      <c r="C70" s="133" t="s">
+        <v>531</v>
+      </c>
+      <c r="D70" s="119" t="s">
         <v>1079</v>
       </c>
-      <c r="E70" s="133" t="s">
+      <c r="E70" s="119" t="s">
         <v>1079</v>
       </c>
-      <c r="F70" s="133" t="s">
+      <c r="F70" s="119" t="s">
         <v>1021</v>
       </c>
-      <c r="G70" s="133" t="s">
+      <c r="G70" s="119" t="s">
         <v>593</v>
       </c>
-      <c r="H70" s="135">
+      <c r="H70" s="121">
         <v>2023.1</v>
       </c>
-      <c r="I70" s="137" t="s">
+      <c r="I70" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="J70" s="139" t="s">
-        <v>531</v>
-      </c>
-      <c r="K70" s="139" t="s">
-        <v>531</v>
-      </c>
-      <c r="L70" s="137" t="s">
+      <c r="J70" s="125" t="s">
+        <v>531</v>
+      </c>
+      <c r="K70" s="125" t="s">
+        <v>531</v>
+      </c>
+      <c r="L70" s="123" t="s">
         <v>1080</v>
       </c>
-      <c r="M70" s="137" t="s">
+      <c r="M70" s="123" t="s">
         <v>1081</v>
       </c>
-      <c r="N70" s="139" t="s">
+      <c r="N70" s="125" t="s">
         <v>1149</v>
       </c>
-      <c r="O70" s="149">
+      <c r="O70" s="135">
         <v>2</v>
       </c>
       <c r="P70" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="Q70" s="137" t="s">
+      <c r="Q70" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="R70" s="137" t="s">
+      <c r="R70" s="123" t="s">
         <v>1085</v>
       </c>
-      <c r="S70" s="137" t="s">
+      <c r="S70" s="123" t="s">
         <v>1086</v>
       </c>
-      <c r="T70" s="137" t="s">
+      <c r="T70" s="123" t="s">
         <v>1087</v>
       </c>
       <c r="U70" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="V70" s="139" t="s">
-        <v>531</v>
-      </c>
-      <c r="W70" s="137" t="s">
+      <c r="V70" s="125" t="s">
+        <v>531</v>
+      </c>
+      <c r="W70" s="123" t="s">
         <v>693</v>
       </c>
-      <c r="X70" s="137" t="s">
+      <c r="X70" s="123" t="s">
         <v>693</v>
       </c>
-      <c r="Y70" s="137" t="s">
+      <c r="Y70" s="123" t="s">
         <v>693</v>
       </c>
-      <c r="Z70" s="137" t="s">
+      <c r="Z70" s="123" t="s">
         <v>693</v>
       </c>
-      <c r="AA70" s="137" t="s">
+      <c r="AA70" s="123" t="s">
         <v>693</v>
       </c>
-      <c r="AB70" s="137" t="s">
+      <c r="AB70" s="123" t="s">
         <v>693</v>
       </c>
-      <c r="AC70" s="137" t="s">
+      <c r="AC70" s="123" t="s">
         <v>693</v>
       </c>
-      <c r="AD70" s="137" t="s">
+      <c r="AD70" s="123" t="s">
         <v>77</v>
       </c>
       <c r="AE70" s="8" t="s">
@@ -26302,46 +26342,46 @@
       <c r="AU70" s="28" t="s">
         <v>693</v>
       </c>
-      <c r="AV70" s="143" t="s">
-        <v>531</v>
-      </c>
-      <c r="AW70" s="143" t="s">
-        <v>531</v>
-      </c>
-      <c r="AX70" s="143" t="s">
+      <c r="AV70" s="129" t="s">
+        <v>531</v>
+      </c>
+      <c r="AW70" s="129" t="s">
+        <v>531</v>
+      </c>
+      <c r="AX70" s="129" t="s">
         <v>765</v>
       </c>
-      <c r="AY70" s="143" t="s">
+      <c r="AY70" s="129" t="s">
         <v>1173</v>
       </c>
-      <c r="AZ70" s="145">
+      <c r="AZ70" s="131">
         <v>20.100000000000001</v>
       </c>
-      <c r="BA70" s="143" t="s">
-        <v>531</v>
-      </c>
-      <c r="BB70" s="143" t="s">
-        <v>531</v>
-      </c>
-      <c r="BC70" s="137" t="s">
+      <c r="BA70" s="129" t="s">
+        <v>531</v>
+      </c>
+      <c r="BB70" s="129" t="s">
+        <v>531</v>
+      </c>
+      <c r="BC70" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="BD70" s="141" t="s">
+      <c r="BD70" s="127" t="s">
         <v>1088</v>
       </c>
-      <c r="BE70" s="131" t="s">
+      <c r="BE70" s="117" t="s">
         <v>706</v>
       </c>
-      <c r="BF70" s="143" t="s">
+      <c r="BF70" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="BG70" s="131" t="s">
+      <c r="BG70" s="117" t="s">
         <v>1089</v>
       </c>
-      <c r="BH70" s="131" t="s">
+      <c r="BH70" s="117" t="s">
         <v>693</v>
       </c>
-      <c r="BI70" s="131" t="s">
+      <c r="BI70" s="117" t="s">
         <v>712</v>
       </c>
       <c r="BJ70" s="8"/>
@@ -26355,40 +26395,40 @@
       <c r="BR70" s="8"/>
     </row>
     <row r="71" spans="1:70" s="33" customFormat="1" ht="24" customHeight="1">
-      <c r="A71" s="134"/>
-      <c r="B71" s="134"/>
-      <c r="C71" s="148"/>
-      <c r="D71" s="134"/>
-      <c r="E71" s="134"/>
-      <c r="F71" s="134"/>
-      <c r="G71" s="134"/>
-      <c r="H71" s="136"/>
-      <c r="I71" s="138"/>
-      <c r="J71" s="140"/>
-      <c r="K71" s="140"/>
-      <c r="L71" s="138"/>
-      <c r="M71" s="138"/>
-      <c r="N71" s="140"/>
-      <c r="O71" s="150"/>
+      <c r="A71" s="120"/>
+      <c r="B71" s="120"/>
+      <c r="C71" s="134"/>
+      <c r="D71" s="120"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
+      <c r="G71" s="120"/>
+      <c r="H71" s="122"/>
+      <c r="I71" s="124"/>
+      <c r="J71" s="126"/>
+      <c r="K71" s="126"/>
+      <c r="L71" s="124"/>
+      <c r="M71" s="124"/>
+      <c r="N71" s="126"/>
+      <c r="O71" s="136"/>
       <c r="P71" s="8" t="s">
         <v>1157</v>
       </c>
-      <c r="Q71" s="138"/>
-      <c r="R71" s="138"/>
-      <c r="S71" s="138"/>
-      <c r="T71" s="138"/>
+      <c r="Q71" s="124"/>
+      <c r="R71" s="124"/>
+      <c r="S71" s="124"/>
+      <c r="T71" s="124"/>
       <c r="U71" s="28" t="s">
         <v>1158</v>
       </c>
-      <c r="V71" s="140"/>
-      <c r="W71" s="138"/>
-      <c r="X71" s="138"/>
-      <c r="Y71" s="138"/>
-      <c r="Z71" s="138"/>
-      <c r="AA71" s="138"/>
-      <c r="AB71" s="138"/>
-      <c r="AC71" s="138"/>
-      <c r="AD71" s="138"/>
+      <c r="V71" s="126"/>
+      <c r="W71" s="124"/>
+      <c r="X71" s="124"/>
+      <c r="Y71" s="124"/>
+      <c r="Z71" s="124"/>
+      <c r="AA71" s="124"/>
+      <c r="AB71" s="124"/>
+      <c r="AC71" s="124"/>
+      <c r="AD71" s="124"/>
       <c r="AE71" s="25" t="s">
         <v>1150</v>
       </c>
@@ -26440,20 +26480,20 @@
       <c r="AU71" s="28" t="s">
         <v>693</v>
       </c>
-      <c r="AV71" s="144"/>
-      <c r="AW71" s="144"/>
-      <c r="AX71" s="144"/>
-      <c r="AY71" s="144"/>
-      <c r="AZ71" s="146"/>
-      <c r="BA71" s="144"/>
-      <c r="BB71" s="144"/>
-      <c r="BC71" s="138"/>
-      <c r="BD71" s="142"/>
-      <c r="BE71" s="132"/>
-      <c r="BF71" s="144"/>
-      <c r="BG71" s="132"/>
-      <c r="BH71" s="132"/>
-      <c r="BI71" s="132"/>
+      <c r="AV71" s="130"/>
+      <c r="AW71" s="130"/>
+      <c r="AX71" s="130"/>
+      <c r="AY71" s="130"/>
+      <c r="AZ71" s="132"/>
+      <c r="BA71" s="130"/>
+      <c r="BB71" s="130"/>
+      <c r="BC71" s="124"/>
+      <c r="BD71" s="128"/>
+      <c r="BE71" s="118"/>
+      <c r="BF71" s="130"/>
+      <c r="BG71" s="118"/>
+      <c r="BH71" s="118"/>
+      <c r="BI71" s="118"/>
       <c r="BJ71" s="8"/>
       <c r="BK71" s="8"/>
       <c r="BL71" s="8"/>
@@ -29965,7 +30005,8 @@
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="L2:V2"/>
     <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="A2:K4"/>
+    <mergeCell ref="BJ4:BR4"/>
     <mergeCell ref="W2:AZ2"/>
     <mergeCell ref="BC3:BI3"/>
     <mergeCell ref="BC4:BI4"/>
@@ -29976,6 +30017,8 @@
     <mergeCell ref="AD3:AU3"/>
     <mergeCell ref="S32:T32"/>
     <mergeCell ref="S31:T31"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="S56:T56"/>
     <mergeCell ref="X70:X71"/>
     <mergeCell ref="Y70:Y71"/>
     <mergeCell ref="Z70:Z71"/>
@@ -29996,9 +30039,6 @@
     <mergeCell ref="C70:C71"/>
     <mergeCell ref="D70:D71"/>
     <mergeCell ref="E70:E71"/>
-    <mergeCell ref="AY70:AY71"/>
-    <mergeCell ref="BA70:BA71"/>
-    <mergeCell ref="BB70:BB71"/>
     <mergeCell ref="BC70:BC71"/>
     <mergeCell ref="AB70:AB71"/>
     <mergeCell ref="AC70:AC71"/>
@@ -30006,9 +30046,6 @@
     <mergeCell ref="AV70:AV71"/>
     <mergeCell ref="AW70:AW71"/>
     <mergeCell ref="AZ70:AZ71"/>
-    <mergeCell ref="A2:K4"/>
-    <mergeCell ref="BJ4:BR4"/>
-    <mergeCell ref="L4:U4"/>
     <mergeCell ref="BI70:BI71"/>
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="G70:G71"/>
@@ -30022,6 +30059,9 @@
     <mergeCell ref="BG70:BG71"/>
     <mergeCell ref="BH70:BH71"/>
     <mergeCell ref="AX70:AX71"/>
+    <mergeCell ref="AY70:AY71"/>
+    <mergeCell ref="BA70:BA71"/>
+    <mergeCell ref="BB70:BB71"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L4 BA3 L2 J31:J37 S33:U36 S31:S32 W2 O49:R49 K42 P42:Q42 W49:X49 X57 Z57 AC57 R61:R62 R59:U59 T57 BQ61:BQ62 AA52:AC52 AA53 W43:AC47 W50:AC51 V4:V36 BA2:BB2 BA6:BB36 BQ6:BQ36 BS6:XFD36 W35:AB36 AC35:AC42 BF2:BJ2 BF5:XFD5 BJ3:BJ4 BC3:BC4 K44:M44 L45:M46 W39:AB41 BF59:BM62 BF6:BI24 BF25:BG36 BI25:BI36 BH25:BH47 BI38:BO47 BJ6:BO36 BQ57:BQ59 BQ51 BC47:BD47 F1:XFD1 BC42 BA38:BE41 BC5:BD36 P65:Q65 L65:M65 L64:S64 S65:T65 O66:S67 V66:W67 L66:L68 L68:R68 Y66:AC67 AB68 AB69:AC69 L69:T69 AA73:AC73 BE65:BI65 BD69 BF69:BG69 BC49:BD53 BI49:BO53 H54:H62 W54:X54 W48 BF55:BG58 BI55:BI58 BJ55:BO55 BQ54 BQ38:BQ48 BE54:BG54 BC55:BE62 BH49:BH62 BS38:XFD63 V38:V54 BI54:BN54 BE48:BO48 X55:AC56 BJ64:XFD69 L74:M74 Q74:R74 W74:AC74 L75:AC75 V77 W76:AC77 BE49:BG51 BF76:BG76 BF74:BI75 G7:G36 G38:G62 I50:U50 I31:I36 I38:I42 I43:M43 I59:M61 F5:H6 F7:F69 I44:J46 H7:H52 I48:I49 K49 I53:I54 K53:M53 I56:I57 I62 K62:M62 H63:I69 J39:J42 V55:W62 X58:AC62 A1:A2 H73:I77 F73:F77 BJ73:XFD77 BS70:XFD72 BF73:BG73 L73:T73 W6:AC34 G73 K73:K77 I51:M52 N51:U53 K39:U41 O43:R46 I47:R47 K48:R48 K54:R54 K57:R57 I55:S55 K56:S56 O59:Q62 O74 L76:S77 K38:S38 Y38 AA38:AB38 S43:U47 K31:R36 I58:S58 R60:T60 U60:U62 V64:AC65 V69:Y69 V73:Y73 F79:XFD1048576 A72:A1048576 W4:AD4 AN4:AV4 BA4:BB4 W5:BB5 BS78:XFD78 A5:A70 BS2:XFD4 I5:U30">
@@ -32910,11 +32950,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="167" t="s">
         <v>901</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
     </row>
     <row r="2" spans="1:3" s="50" customFormat="1" ht="13.5">
       <c r="A2" s="49" t="s">

--- a/foxconn-sw-tool-service/src/main/resources/templates/project_list_template.xlsx
+++ b/foxconn-sw-tool-service/src/main/resources/templates/project_list_template.xlsx
@@ -8033,11 +8033,29 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8047,12 +8065,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8077,12 +8089,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -8111,26 +8117,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15590,7 +15590,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -15663,340 +15663,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="33" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="123" t="s">
         <v>1291</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="121"/>
-      <c r="AJ1" s="121"/>
-      <c r="AK1" s="121"/>
-      <c r="AL1" s="121"/>
-      <c r="AM1" s="121"/>
-      <c r="AN1" s="121"/>
-      <c r="AO1" s="121"/>
-      <c r="AP1" s="121"/>
-      <c r="AQ1" s="121"/>
-      <c r="AR1" s="121"/>
-      <c r="AS1" s="121"/>
-      <c r="AT1" s="121"/>
-      <c r="AU1" s="121"/>
-      <c r="AV1" s="121"/>
-      <c r="AW1" s="121"/>
-      <c r="AX1" s="121"/>
-      <c r="AY1" s="121"/>
-      <c r="AZ1" s="121"/>
-      <c r="BA1" s="121"/>
-      <c r="BB1" s="121"/>
-      <c r="BC1" s="121"/>
-      <c r="BD1" s="121"/>
-      <c r="BE1" s="121"/>
-      <c r="BF1" s="121"/>
-      <c r="BG1" s="121"/>
-      <c r="BH1" s="121"/>
-      <c r="BI1" s="121"/>
-      <c r="BJ1" s="121"/>
-      <c r="BK1" s="121"/>
-      <c r="BL1" s="121"/>
-      <c r="BM1" s="121"/>
-      <c r="BN1" s="121"/>
-      <c r="BO1" s="121"/>
-      <c r="BP1" s="121"/>
-      <c r="BQ1" s="121"/>
-      <c r="BR1" s="122"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="125"/>
+      <c r="AU1" s="125"/>
+      <c r="AV1" s="125"/>
+      <c r="AW1" s="125"/>
+      <c r="AX1" s="125"/>
+      <c r="AY1" s="125"/>
+      <c r="AZ1" s="125"/>
+      <c r="BA1" s="125"/>
+      <c r="BB1" s="125"/>
+      <c r="BC1" s="125"/>
+      <c r="BD1" s="125"/>
+      <c r="BE1" s="125"/>
+      <c r="BF1" s="125"/>
+      <c r="BG1" s="125"/>
+      <c r="BH1" s="125"/>
+      <c r="BI1" s="125"/>
+      <c r="BJ1" s="125"/>
+      <c r="BK1" s="125"/>
+      <c r="BL1" s="125"/>
+      <c r="BM1" s="125"/>
+      <c r="BN1" s="125"/>
+      <c r="BO1" s="125"/>
+      <c r="BP1" s="125"/>
+      <c r="BQ1" s="125"/>
+      <c r="BR1" s="126"/>
     </row>
     <row r="2" spans="1:70" s="1" customFormat="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="127" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="117" t="s">
         <v>313</v>
       </c>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="127" t="s">
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="128"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="128"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="128"/>
-      <c r="AS2" s="128"/>
-      <c r="AT2" s="128"/>
-      <c r="AU2" s="128"/>
-      <c r="AV2" s="128"/>
-      <c r="AW2" s="128"/>
-      <c r="AX2" s="128"/>
-      <c r="AY2" s="128"/>
-      <c r="AZ2" s="138"/>
-      <c r="BA2" s="123" t="s">
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="118"/>
+      <c r="AM2" s="118"/>
+      <c r="AN2" s="118"/>
+      <c r="AO2" s="118"/>
+      <c r="AP2" s="118"/>
+      <c r="AQ2" s="118"/>
+      <c r="AR2" s="118"/>
+      <c r="AS2" s="118"/>
+      <c r="AT2" s="118"/>
+      <c r="AU2" s="118"/>
+      <c r="AV2" s="118"/>
+      <c r="AW2" s="118"/>
+      <c r="AX2" s="118"/>
+      <c r="AY2" s="118"/>
+      <c r="AZ2" s="119"/>
+      <c r="BA2" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="BB2" s="123"/>
-      <c r="BC2" s="123"/>
-      <c r="BD2" s="123"/>
-      <c r="BE2" s="123"/>
-      <c r="BF2" s="123"/>
-      <c r="BG2" s="123"/>
-      <c r="BH2" s="123"/>
-      <c r="BI2" s="123"/>
-      <c r="BJ2" s="124" t="s">
+      <c r="BB2" s="127"/>
+      <c r="BC2" s="127"/>
+      <c r="BD2" s="127"/>
+      <c r="BE2" s="127"/>
+      <c r="BF2" s="127"/>
+      <c r="BG2" s="127"/>
+      <c r="BH2" s="127"/>
+      <c r="BI2" s="127"/>
+      <c r="BJ2" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="BK2" s="125"/>
-      <c r="BL2" s="125"/>
-      <c r="BM2" s="125"/>
-      <c r="BN2" s="125"/>
-      <c r="BO2" s="125"/>
-      <c r="BP2" s="125"/>
-      <c r="BQ2" s="125"/>
-      <c r="BR2" s="126"/>
+      <c r="BK2" s="129"/>
+      <c r="BL2" s="129"/>
+      <c r="BM2" s="129"/>
+      <c r="BN2" s="129"/>
+      <c r="BO2" s="129"/>
+      <c r="BP2" s="129"/>
+      <c r="BQ2" s="129"/>
+      <c r="BR2" s="130"/>
     </row>
     <row r="3" spans="1:70" s="1" customFormat="1">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="114" t="s">
+      <c r="A3" s="134"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="120" t="s">
         <v>342</v>
       </c>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="114" t="s">
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="120" t="s">
         <v>472</v>
       </c>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="115"/>
-      <c r="AJ3" s="115"/>
-      <c r="AK3" s="115"/>
-      <c r="AL3" s="115"/>
-      <c r="AM3" s="115"/>
-      <c r="AN3" s="115"/>
-      <c r="AO3" s="115"/>
-      <c r="AP3" s="115"/>
-      <c r="AQ3" s="115"/>
-      <c r="AR3" s="115"/>
-      <c r="AS3" s="115"/>
-      <c r="AT3" s="115"/>
-      <c r="AU3" s="116"/>
-      <c r="AV3" s="114" t="s">
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="121"/>
+      <c r="AJ3" s="121"/>
+      <c r="AK3" s="121"/>
+      <c r="AL3" s="121"/>
+      <c r="AM3" s="121"/>
+      <c r="AN3" s="121"/>
+      <c r="AO3" s="121"/>
+      <c r="AP3" s="121"/>
+      <c r="AQ3" s="121"/>
+      <c r="AR3" s="121"/>
+      <c r="AS3" s="121"/>
+      <c r="AT3" s="121"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="120" t="s">
         <v>473</v>
       </c>
-      <c r="AW3" s="115"/>
-      <c r="AX3" s="115"/>
-      <c r="AY3" s="115"/>
-      <c r="AZ3" s="116"/>
-      <c r="BA3" s="123" t="s">
+      <c r="AW3" s="121"/>
+      <c r="AX3" s="121"/>
+      <c r="AY3" s="121"/>
+      <c r="AZ3" s="122"/>
+      <c r="BA3" s="127" t="s">
         <v>474</v>
       </c>
-      <c r="BB3" s="123"/>
-      <c r="BC3" s="114" t="s">
+      <c r="BB3" s="127"/>
+      <c r="BC3" s="120" t="s">
         <v>475</v>
       </c>
-      <c r="BD3" s="115"/>
-      <c r="BE3" s="115"/>
-      <c r="BF3" s="115"/>
-      <c r="BG3" s="115"/>
-      <c r="BH3" s="115"/>
-      <c r="BI3" s="116"/>
-      <c r="BJ3" s="123" t="s">
+      <c r="BD3" s="121"/>
+      <c r="BE3" s="121"/>
+      <c r="BF3" s="121"/>
+      <c r="BG3" s="121"/>
+      <c r="BH3" s="121"/>
+      <c r="BI3" s="122"/>
+      <c r="BJ3" s="127" t="s">
         <v>476</v>
       </c>
-      <c r="BK3" s="123"/>
-      <c r="BL3" s="123"/>
-      <c r="BM3" s="123"/>
-      <c r="BN3" s="123"/>
-      <c r="BO3" s="123"/>
-      <c r="BP3" s="123"/>
-      <c r="BQ3" s="123"/>
-      <c r="BR3" s="123"/>
+      <c r="BK3" s="127"/>
+      <c r="BL3" s="127"/>
+      <c r="BM3" s="127"/>
+      <c r="BN3" s="127"/>
+      <c r="BO3" s="127"/>
+      <c r="BP3" s="127"/>
+      <c r="BQ3" s="127"/>
+      <c r="BR3" s="127"/>
     </row>
     <row r="4" spans="1:70" s="1" customFormat="1">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="127" t="s">
+      <c r="A4" s="137"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="117" t="s">
         <v>490</v>
       </c>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="138"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="119"/>
       <c r="V4" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="W4" s="123" t="s">
+      <c r="W4" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="114" t="s">
+      <c r="X4" s="127"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="116"/>
+      <c r="AA4" s="121"/>
+      <c r="AB4" s="122"/>
       <c r="AC4" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="AD4" s="114" t="s">
+      <c r="AD4" s="120" t="s">
         <v>1289</v>
       </c>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="115"/>
-      <c r="AG4" s="115"/>
-      <c r="AH4" s="115"/>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="115"/>
-      <c r="AK4" s="115"/>
-      <c r="AL4" s="115"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="123" t="s">
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="121"/>
+      <c r="AG4" s="121"/>
+      <c r="AH4" s="121"/>
+      <c r="AI4" s="121"/>
+      <c r="AJ4" s="121"/>
+      <c r="AK4" s="121"/>
+      <c r="AL4" s="121"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="AO4" s="123"/>
-      <c r="AP4" s="123"/>
-      <c r="AQ4" s="123"/>
-      <c r="AR4" s="123" t="s">
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="127"/>
+      <c r="AQ4" s="127"/>
+      <c r="AR4" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="AS4" s="123"/>
-      <c r="AT4" s="123"/>
+      <c r="AS4" s="127"/>
+      <c r="AT4" s="127"/>
       <c r="AU4" s="43" t="s">
         <v>420</v>
       </c>
-      <c r="AV4" s="114" t="s">
+      <c r="AV4" s="120" t="s">
         <v>1287</v>
       </c>
-      <c r="AW4" s="115"/>
-      <c r="AX4" s="115"/>
-      <c r="AY4" s="115"/>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="123" t="s">
+      <c r="AW4" s="121"/>
+      <c r="AX4" s="121"/>
+      <c r="AY4" s="121"/>
+      <c r="AZ4" s="122"/>
+      <c r="BA4" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="BB4" s="123"/>
-      <c r="BC4" s="114" t="s">
+      <c r="BB4" s="127"/>
+      <c r="BC4" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="BD4" s="115"/>
-      <c r="BE4" s="115"/>
-      <c r="BF4" s="115"/>
-      <c r="BG4" s="115"/>
-      <c r="BH4" s="115"/>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="139"/>
-      <c r="BK4" s="140"/>
-      <c r="BL4" s="140"/>
-      <c r="BM4" s="140"/>
-      <c r="BN4" s="140"/>
-      <c r="BO4" s="140"/>
-      <c r="BP4" s="140"/>
-      <c r="BQ4" s="140"/>
-      <c r="BR4" s="141"/>
+      <c r="BD4" s="121"/>
+      <c r="BE4" s="121"/>
+      <c r="BF4" s="121"/>
+      <c r="BG4" s="121"/>
+      <c r="BH4" s="121"/>
+      <c r="BI4" s="122"/>
+      <c r="BJ4" s="114"/>
+      <c r="BK4" s="115"/>
+      <c r="BL4" s="115"/>
+      <c r="BM4" s="115"/>
+      <c r="BN4" s="115"/>
+      <c r="BO4" s="115"/>
+      <c r="BP4" s="115"/>
+      <c r="BQ4" s="115"/>
+      <c r="BR4" s="116"/>
     </row>
     <row r="5" spans="1:70" s="44" customFormat="1" ht="36">
       <c r="A5" s="5" t="s">
@@ -16032,10 +16032,10 @@
       <c r="K5" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="L5" s="143" t="s">
+      <c r="L5" s="112" t="s">
         <v>1292</v>
       </c>
-      <c r="M5" s="144" t="s">
+      <c r="M5" s="113" t="s">
         <v>1293</v>
       </c>
       <c r="N5" s="47" t="s">
@@ -21565,10 +21565,10 @@
       <c r="R31" s="84" t="s">
         <v>289</v>
       </c>
-      <c r="S31" s="117" t="s">
+      <c r="S31" s="142" t="s">
         <v>517</v>
       </c>
-      <c r="T31" s="118"/>
+      <c r="T31" s="143"/>
       <c r="U31" s="53">
         <v>24</v>
       </c>
@@ -21775,10 +21775,10 @@
       <c r="R32" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="S32" s="112" t="s">
+      <c r="S32" s="140" t="s">
         <v>693</v>
       </c>
-      <c r="T32" s="113"/>
+      <c r="T32" s="141"/>
       <c r="U32" s="54">
         <v>28</v>
       </c>
@@ -27285,10 +27285,10 @@
       <c r="R58" s="84" t="s">
         <v>289</v>
       </c>
-      <c r="S58" s="112" t="s">
+      <c r="S58" s="140" t="s">
         <v>492</v>
       </c>
-      <c r="T58" s="113"/>
+      <c r="T58" s="141"/>
       <c r="U58" s="22">
         <v>24</v>
       </c>
@@ -33585,11 +33585,10 @@
   </sheetData>
   <autoFilter ref="A5:BR77"/>
   <mergeCells count="25">
-    <mergeCell ref="BJ4:BR4"/>
-    <mergeCell ref="W2:AZ2"/>
-    <mergeCell ref="BC3:BI3"/>
-    <mergeCell ref="BC4:BI4"/>
-    <mergeCell ref="L3:AC3"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="AD3:AU3"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S31:T31"/>
     <mergeCell ref="A1:BR1"/>
     <mergeCell ref="AR4:AT4"/>
     <mergeCell ref="BA4:BB4"/>
@@ -33606,10 +33605,11 @@
     <mergeCell ref="AV4:AZ4"/>
     <mergeCell ref="A2:K4"/>
     <mergeCell ref="L4:U4"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="AD3:AU3"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="BJ4:BR4"/>
+    <mergeCell ref="W2:AZ2"/>
+    <mergeCell ref="BC3:BI3"/>
+    <mergeCell ref="BC4:BI4"/>
+    <mergeCell ref="L3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L4 BA3 L2 J31:J37 S31:S32 W2 O49:R49 K42 P42:Q42 W49:X49 R61:R62 R59:U59 W43:AC47 V4:V36 BA2:BB2 BQ6:BQ36 BS6:XFD36 W35:AB36 AC35:AC42 BF2:BJ2 BF5:XFD5 BJ3:BJ4 BC3:BC4 L45:M46 W39:AB41 BJ6:BL36 BQ57:BQ58 BQ51 F1:XFD1 P65:Q65 L65:M65 L64:S64 S65:T65 O66:S67 V66:W67 L66:L68 L68:R68 Y66:AC67 AB68 AB69:AC69 L69:T69 AA72:AC72 W48 BQ54 BQ38:BQ48 L73:M73 Q73:R73 W73:AC73 L74:AC74 V76 W75:AC76 G7:G36 I31:I36 I38:I42 K43:M44 I59:J61 F5:H6 F7:F49 I48:I49 K49 I62 K59:M62 H63:I69 J39:J42 V59:AC62 H72:I76 F72:F76 L72 K72:K76 O43:R46 I43:J47 K47:R48 O59:Q62 O73 L75:S76 K38:S38 Y38 AA38:AB38 S43:U47 K31:R36 R60:T60 U60:U62 V64:AC65 V69:Y69 V72:Y72 K78:XFD1048576 A1:A2 W4:AD4 AN4:AV4 BA4:BB4 W5:BD5 G38:G49 W6:AC34 S33:U33 K39:U41 I17:U20 I15:S16 U15:U16 I23:U23 I21:S22 U21:U22 I25:U26 I24:S24 U24 I30:U30 I27:S29 U27:U29 S35:U36 S34 U34 O72:T72 U42 G71:G72 F77:J1048576 O77:R77 U77:AC77 BL72 BQ77 BQ72 BS38:XFD77 G59:H62 F59:F69 BN56:BN58 BN77 AD38:AF40 AF41:AF42 AI38:AL38 AU6:AU42 AI41:AL42 AI39:AJ40 AL39:AL40 AN38:AT40 AN6:AT36 AH39:AH41 AH6:AH30 AM35:AM36 AM6:AM30 BL74:BM74 BJ38:BN39 BF6:BI24 BF25:BG36 BI25:BI36 BH25:BH47 BI38:BI47 BC47:BD47 BC42 BA38:BE41 BA6:BD36 BE65:BI65 BD69 BF69:BG69 BC49:BD53 BF55:BG58 BE54:BG54 BC55:BE62 BH49:BI58 BE49:BG51 BF75:BG75 BF73:BI74 BF72:BG72 BE48:BI48 BO55 BO38:BO53 BO72 BO74 W50:AC51 H54 W54:X54 V38:V54 I50:U50 H7:H52 I53:I54 K53:M53 I51:M52 K54:R54 F50:G54 N51:U53 U54 W52:W53 Y52:Z54 AA53:AB53 Z57 AC57 T57 X55:AC56 I56:I57 X58:AC58 K57:R57 I58:S58 I55:J55 F55:H58 K55:S56 V55:W58 BJ50:BN55 BJ49:BL49 BN49 BQ74 BJ42:BN48 BJ40:BM41 BN6:BN36 A5:A1048576 BS2:XFD4 I5:U14">
@@ -37243,11 +37243,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="144" t="s">
         <v>633</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
     </row>
     <row r="2" spans="1:3" s="40" customFormat="1" ht="13.5">
       <c r="A2" s="39" t="s">
